--- a/biology/Botanique/Jardins_botaniques_de_Niévès/Jardins_botaniques_de_Niévès.xlsx
+++ b/biology/Botanique/Jardins_botaniques_de_Niévès/Jardins_botaniques_de_Niévès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardins_botaniques_de_Ni%C3%A9v%C3%A8s</t>
+          <t>Jardins_botaniques_de_Niévès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Les Jardins botaniques de Niévès sont un ensemble de jardins situés à Pond Hill sur l'île de Niévès à Saint-Christophe-et-Niévès.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardins_botaniques_de_Ni%C3%A9v%C3%A8s</t>
+          <t>Jardins_botaniques_de_Niévès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ils ont été créés par un couple originaire de Philadelphie, Joseph et Martha Murphy.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardins_botaniques_de_Ni%C3%A9v%C3%A8s</t>
+          <t>Jardins_botaniques_de_Niévès</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Collections</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils contiennent, outre des sculptures, des fontaines et la réplique d'une grande maison, de nombreux jardins : rosiers, vignes, cactus, arbres fruitiers, orchidées. La partie la plus remarquable est le conservatoire de la forêt tropicale humide, construit en imitation du conservatoire de Kew Gardens à Londres[1].
-Les Jardins abritent des arbres remarquables, notamment le Poinciana ou Delonix regia nommée en l'honneur Philippe de Longvilliers de Poincy, premier gouverneur français de Saint-Christophe. Il existe plus de 100 variétés de palmiers[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils contiennent, outre des sculptures, des fontaines et la réplique d'une grande maison, de nombreux jardins : rosiers, vignes, cactus, arbres fruitiers, orchidées. La partie la plus remarquable est le conservatoire de la forêt tropicale humide, construit en imitation du conservatoire de Kew Gardens à Londres.
+Les Jardins abritent des arbres remarquables, notamment le Poinciana ou Delonix regia nommée en l'honneur Philippe de Longvilliers de Poincy, premier gouverneur français de Saint-Christophe. Il existe plus de 100 variétés de palmiers.
 </t>
         </is>
       </c>
